--- a/Code/Results/Cases/Case_9_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003551483807519</v>
+        <v>1.003441125587891</v>
       </c>
       <c r="D2">
-        <v>1.02669025242247</v>
+        <v>1.026091297053543</v>
       </c>
       <c r="E2">
-        <v>1.009275009186765</v>
+        <v>1.00923253407338</v>
       </c>
       <c r="F2">
-        <v>1.030658003610246</v>
+        <v>1.030279275623739</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045499558500771</v>
+        <v>1.045320343497333</v>
       </c>
       <c r="J2">
-        <v>1.025626487017541</v>
+        <v>1.025519398070177</v>
       </c>
       <c r="K2">
-        <v>1.037789862752567</v>
+        <v>1.037198722756649</v>
       </c>
       <c r="L2">
-        <v>1.020606623193087</v>
+        <v>1.020564726245071</v>
       </c>
       <c r="M2">
-        <v>1.04170612839274</v>
+        <v>1.041332293360883</v>
       </c>
       <c r="N2">
-        <v>1.011842181778164</v>
+        <v>1.013569093416649</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041579992822198</v>
+        <v>1.041284127841323</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037790973996548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037381769128255</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021779278167284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008198643781286</v>
+        <v>1.007780405723286</v>
       </c>
       <c r="D3">
-        <v>1.029835090390149</v>
+        <v>1.028916189500217</v>
       </c>
       <c r="E3">
-        <v>1.013023774901415</v>
+        <v>1.012706799844666</v>
       </c>
       <c r="F3">
-        <v>1.033848837488331</v>
+        <v>1.03322692427354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04639116721826</v>
+        <v>1.046069842669824</v>
       </c>
       <c r="J3">
-        <v>1.028468273641996</v>
+        <v>1.028061193016792</v>
       </c>
       <c r="K3">
-        <v>1.040099943313938</v>
+        <v>1.039191982371283</v>
       </c>
       <c r="L3">
-        <v>1.023492682603349</v>
+        <v>1.02317963598882</v>
       </c>
       <c r="M3">
-        <v>1.044066187172372</v>
+        <v>1.043451604463186</v>
       </c>
       <c r="N3">
-        <v>1.012857460490282</v>
+        <v>1.014285499929729</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043447815910675</v>
+        <v>1.04296141671904</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039421740712105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038788234127115</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022227512214577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011146084425147</v>
+        <v>1.010535669848321</v>
       </c>
       <c r="D4">
-        <v>1.031833063638903</v>
+        <v>1.030713275835974</v>
       </c>
       <c r="E4">
-        <v>1.015407189841709</v>
+        <v>1.014918716869944</v>
       </c>
       <c r="F4">
-        <v>1.035880082220141</v>
+        <v>1.035105764054155</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046946161609475</v>
+        <v>1.046535605386391</v>
       </c>
       <c r="J4">
-        <v>1.030268906626247</v>
+        <v>1.029673658464216</v>
       </c>
       <c r="K4">
-        <v>1.041561892193835</v>
+        <v>1.040454628497973</v>
       </c>
       <c r="L4">
-        <v>1.025323153088657</v>
+        <v>1.02484035977186</v>
       </c>
       <c r="M4">
-        <v>1.045563925067139</v>
+        <v>1.044798180575904</v>
       </c>
       <c r="N4">
-        <v>1.013500024799321</v>
+        <v>1.014739638313439</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044633169249326</v>
+        <v>1.04402713702412</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040456361516914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039682009846426</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022508905161827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012376771768306</v>
+        <v>1.011686600011448</v>
       </c>
       <c r="D5">
-        <v>1.032670267360049</v>
+        <v>1.0314669643057</v>
       </c>
       <c r="E5">
-        <v>1.016404418800368</v>
+        <v>1.015844707703691</v>
       </c>
       <c r="F5">
-        <v>1.036730636211559</v>
+        <v>1.035893000227698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047177266742926</v>
+        <v>1.046729551569171</v>
       </c>
       <c r="J5">
-        <v>1.03102223839381</v>
+        <v>1.030348695170407</v>
       </c>
       <c r="K5">
-        <v>1.042174625638757</v>
+        <v>1.040984420914459</v>
       </c>
       <c r="L5">
-        <v>1.026089068048565</v>
+        <v>1.025535687418913</v>
       </c>
       <c r="M5">
-        <v>1.046191071190413</v>
+        <v>1.045362461826749</v>
       </c>
       <c r="N5">
-        <v>1.013769453858655</v>
+        <v>1.014930240055153</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045129510363927</v>
+        <v>1.044473725492335</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040896777950616</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04006448981387</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022627027952688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012589118952348</v>
+        <v>1.011884956265668</v>
       </c>
       <c r="D6">
-        <v>1.032817447062784</v>
+        <v>1.031599629563642</v>
       </c>
       <c r="E6">
-        <v>1.01657741791275</v>
+        <v>1.016005166851522</v>
       </c>
       <c r="F6">
-        <v>1.036878321518479</v>
+        <v>1.036029656934462</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047219354368947</v>
+        <v>1.046765102899282</v>
       </c>
       <c r="J6">
-        <v>1.031154560910999</v>
+        <v>1.030467275273565</v>
       </c>
       <c r="K6">
-        <v>1.042284092881073</v>
+        <v>1.041079470644564</v>
       </c>
       <c r="L6">
-        <v>1.026223228525847</v>
+        <v>1.025657419368743</v>
       </c>
       <c r="M6">
-        <v>1.046301241514785</v>
+        <v>1.045461680283402</v>
       </c>
       <c r="N6">
-        <v>1.013817724859838</v>
+        <v>1.014964408383424</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045216702228453</v>
+        <v>1.04455224981437</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040982913621374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040141299760004</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022649001088205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011180172834925</v>
+        <v>1.010578158474215</v>
       </c>
       <c r="D7">
-        <v>1.031863449243527</v>
+        <v>1.030749270103166</v>
       </c>
       <c r="E7">
-        <v>1.015437137041339</v>
+        <v>1.01495650122319</v>
       </c>
       <c r="F7">
-        <v>1.035905840699891</v>
+        <v>1.035136383233992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046958958429937</v>
+        <v>1.046551077924329</v>
       </c>
       <c r="J7">
-        <v>1.030296161101238</v>
+        <v>1.029709097456633</v>
       </c>
       <c r="K7">
-        <v>1.041589060785236</v>
+        <v>1.040487337882086</v>
       </c>
       <c r="L7">
-        <v>1.025349812162944</v>
+        <v>1.024874762542601</v>
       </c>
       <c r="M7">
-        <v>1.045586535935806</v>
+        <v>1.04482559491756</v>
       </c>
       <c r="N7">
-        <v>1.013512391020325</v>
+        <v>1.01477816026344</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044651064133798</v>
+        <v>1.044048833531649</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04049566426236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039727228652549</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022519418686677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005157119902828</v>
+        <v>1.004973929885808</v>
       </c>
       <c r="D8">
-        <v>1.027785089852273</v>
+        <v>1.027100566228993</v>
       </c>
       <c r="E8">
-        <v>1.010572113886836</v>
+        <v>1.010466168328453</v>
       </c>
       <c r="F8">
-        <v>1.031761631531508</v>
+        <v>1.031319759118073</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045817811843788</v>
+        <v>1.045601638753648</v>
       </c>
       <c r="J8">
-        <v>1.026616775445851</v>
+        <v>1.026438826324703</v>
       </c>
       <c r="K8">
-        <v>1.038601401084726</v>
+        <v>1.03792554153736</v>
       </c>
       <c r="L8">
-        <v>1.021610758433563</v>
+        <v>1.021506210743015</v>
       </c>
       <c r="M8">
-        <v>1.042527894830425</v>
+        <v>1.042091559965087</v>
       </c>
       <c r="N8">
-        <v>1.012199604269863</v>
+        <v>1.013912031334842</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042230364595174</v>
+        <v>1.041885035548824</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038387720617747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037920873091001</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02194925460673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9940340637548327</v>
+        <v>0.9946140868078865</v>
       </c>
       <c r="D9">
-        <v>1.020271624209458</v>
+        <v>1.020370568943949</v>
       </c>
       <c r="E9">
-        <v>1.001631920618703</v>
+        <v>1.002205671728883</v>
       </c>
       <c r="F9">
-        <v>1.024167348617141</v>
+        <v>1.024323224824951</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043618474026256</v>
+        <v>1.043750762380947</v>
       </c>
       <c r="J9">
-        <v>1.019799267965944</v>
+        <v>1.020358479702713</v>
       </c>
       <c r="K9">
-        <v>1.033044152595898</v>
+        <v>1.033141572627614</v>
       </c>
       <c r="L9">
-        <v>1.014698576420922</v>
+        <v>1.015263064524647</v>
       </c>
       <c r="M9">
-        <v>1.036880129102253</v>
+        <v>1.037033626727761</v>
       </c>
       <c r="N9">
-        <v>1.009757075559945</v>
+        <v>1.012204782711844</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037760533542482</v>
+        <v>1.037882017075039</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034455171184394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034534827977801</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020857384150794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9863618623997994</v>
+        <v>0.9875312376465943</v>
       </c>
       <c r="D10">
-        <v>1.015145257496462</v>
+        <v>1.01582812891262</v>
       </c>
       <c r="E10">
-        <v>0.9955152159877338</v>
+        <v>0.9966137239089439</v>
       </c>
       <c r="F10">
-        <v>1.019057825664288</v>
+        <v>1.019663678355412</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042079501748467</v>
+        <v>1.042471821321093</v>
       </c>
       <c r="J10">
-        <v>1.015127227927306</v>
+        <v>1.016248445530373</v>
       </c>
       <c r="K10">
-        <v>1.029246339959826</v>
+        <v>1.02991736379801</v>
       </c>
       <c r="L10">
-        <v>1.009965919486572</v>
+        <v>1.011044388970594</v>
       </c>
       <c r="M10">
-        <v>1.033091304581354</v>
+        <v>1.033686748969687</v>
       </c>
       <c r="N10">
-        <v>1.00809393649036</v>
+        <v>1.011174040176315</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03481358333318</v>
+        <v>1.035284811618451</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031786729508494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032273651663754</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020123135906583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9837585207968211</v>
+        <v>0.9851324438055997</v>
       </c>
       <c r="D11">
-        <v>1.013658909989211</v>
+        <v>1.0145332385729</v>
       </c>
       <c r="E11">
-        <v>0.9935619375519157</v>
+        <v>0.9948373854594106</v>
       </c>
       <c r="F11">
-        <v>1.017990307649618</v>
+        <v>1.018745745701299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041778105149</v>
+        <v>1.04224491187767</v>
       </c>
       <c r="J11">
-        <v>1.013822928919463</v>
+        <v>1.015137082657024</v>
       </c>
       <c r="K11">
-        <v>1.028327755799273</v>
+        <v>1.029186186827499</v>
       </c>
       <c r="L11">
-        <v>1.008606296242742</v>
+        <v>1.009857322300198</v>
       </c>
       <c r="M11">
-        <v>1.03258074503571</v>
+        <v>1.033322596616277</v>
       </c>
       <c r="N11">
-        <v>1.007743535252083</v>
+        <v>1.011174705027397</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034847575356669</v>
+        <v>1.035434371204007</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031170252535023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031792879381098</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020037294208112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9830751707815225</v>
+        <v>0.9844763367263443</v>
       </c>
       <c r="D12">
-        <v>1.013384199851307</v>
+        <v>1.014283569748669</v>
       </c>
       <c r="E12">
-        <v>0.9931082747893378</v>
+        <v>0.9944018571757499</v>
       </c>
       <c r="F12">
-        <v>1.018019024220801</v>
+        <v>1.01879405101852</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041807164810096</v>
+        <v>1.042274883615405</v>
       </c>
       <c r="J12">
-        <v>1.013613502631722</v>
+        <v>1.014952532870907</v>
       </c>
       <c r="K12">
-        <v>1.028259394770484</v>
+        <v>1.029142141646389</v>
       </c>
       <c r="L12">
-        <v>1.008368711247912</v>
+        <v>1.009637100447859</v>
       </c>
       <c r="M12">
-        <v>1.032808963096572</v>
+        <v>1.033569832074027</v>
       </c>
       <c r="N12">
-        <v>1.007760562982741</v>
+        <v>1.011287473001313</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035355645710753</v>
+        <v>1.035957279020684</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031121918614523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031761738422319</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020085701600179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9838500876318276</v>
+        <v>0.9851232311550557</v>
       </c>
       <c r="D13">
-        <v>1.014050362903402</v>
+        <v>1.014832450939522</v>
       </c>
       <c r="E13">
-        <v>0.9937996983426047</v>
+        <v>0.9949715547610751</v>
       </c>
       <c r="F13">
-        <v>1.018924798629917</v>
+        <v>1.019607660762907</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042110027075777</v>
+        <v>1.042514706680792</v>
       </c>
       <c r="J13">
-        <v>1.014258838117595</v>
+        <v>1.015475846759671</v>
       </c>
       <c r="K13">
-        <v>1.02887009415213</v>
+        <v>1.029637797745655</v>
       </c>
       <c r="L13">
-        <v>1.009002221444636</v>
+        <v>1.010151370003009</v>
       </c>
       <c r="M13">
-        <v>1.033655346010813</v>
+        <v>1.034325802914954</v>
       </c>
       <c r="N13">
-        <v>1.008073893379432</v>
+        <v>1.011463343382503</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036302317918067</v>
+        <v>1.036832326852264</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031551202424688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032109433298753</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020246473149898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9850516226792859</v>
+        <v>0.9861667510409149</v>
       </c>
       <c r="D14">
-        <v>1.014942208975302</v>
+        <v>1.015579505349431</v>
       </c>
       <c r="E14">
-        <v>0.9948011677473135</v>
+        <v>0.9958266055844482</v>
       </c>
       <c r="F14">
-        <v>1.019954123335313</v>
+        <v>1.020523334890135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042445351383618</v>
+        <v>1.042778233675482</v>
       </c>
       <c r="J14">
-        <v>1.015096334904404</v>
+        <v>1.016163046315813</v>
       </c>
       <c r="K14">
-        <v>1.029604340132475</v>
+        <v>1.030230068270321</v>
       </c>
       <c r="L14">
-        <v>1.009838895495416</v>
+        <v>1.010844730336016</v>
       </c>
       <c r="M14">
-        <v>1.034525784869513</v>
+        <v>1.035084794622249</v>
       </c>
       <c r="N14">
-        <v>1.00842702413832</v>
+        <v>1.011616820763662</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037164076419436</v>
+        <v>1.03760592447508</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032071774110923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03252975123288</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02041047561457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9856703657944629</v>
+        <v>0.9867135945308871</v>
       </c>
       <c r="D15">
-        <v>1.015375627459642</v>
+        <v>1.015946860125501</v>
       </c>
       <c r="E15">
-        <v>0.9953030085776037</v>
+        <v>0.9962628979593187</v>
       </c>
       <c r="F15">
-        <v>1.02041463917932</v>
+        <v>1.020932031771966</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042592196261586</v>
+        <v>1.042893914438207</v>
       </c>
       <c r="J15">
-        <v>1.015496888853998</v>
+        <v>1.016495237943928</v>
       </c>
       <c r="K15">
-        <v>1.029942942243938</v>
+        <v>1.030503887281036</v>
       </c>
       <c r="L15">
-        <v>1.010241626612856</v>
+        <v>1.011183314661416</v>
       </c>
       <c r="M15">
-        <v>1.034891719460911</v>
+        <v>1.035399912445908</v>
       </c>
       <c r="N15">
-        <v>1.00858208594662</v>
+        <v>1.011674642961178</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03749091379922</v>
+        <v>1.037892585103794</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032317073965382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032729810802767</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020479043465619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9887751598516439</v>
+        <v>0.9895140904989334</v>
       </c>
       <c r="D16">
-        <v>1.017426223184361</v>
+        <v>1.017713773360809</v>
       </c>
       <c r="E16">
-        <v>0.9977565596328014</v>
+        <v>0.9984448436463453</v>
       </c>
       <c r="F16">
-        <v>1.02243917743119</v>
+        <v>1.022734769540558</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043202287602002</v>
+        <v>1.043378610164085</v>
       </c>
       <c r="J16">
-        <v>1.017363081049462</v>
+        <v>1.018071869647211</v>
       </c>
       <c r="K16">
-        <v>1.031452036722683</v>
+        <v>1.03173463890817</v>
       </c>
       <c r="L16">
-        <v>1.012129641335239</v>
+        <v>1.012805473310412</v>
       </c>
       <c r="M16">
-        <v>1.036379245781893</v>
+        <v>1.036669815750515</v>
       </c>
       <c r="N16">
-        <v>1.009229665081883</v>
+        <v>1.011892074815377</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038627871193081</v>
+        <v>1.038857541800919</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033387238587264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033603466556698</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020747848174295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9905294354684407</v>
+        <v>0.9911311393063822</v>
       </c>
       <c r="D17">
-        <v>1.018533833165941</v>
+        <v>1.01868940618636</v>
       </c>
       <c r="E17">
-        <v>0.9991176523142721</v>
+        <v>0.9996862846585783</v>
       </c>
       <c r="F17">
-        <v>1.023449250129824</v>
+        <v>1.023642403954007</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043492573962977</v>
+        <v>1.043614501102389</v>
       </c>
       <c r="J17">
-        <v>1.018356482089798</v>
+        <v>1.018934453368474</v>
       </c>
       <c r="K17">
-        <v>1.032224517861037</v>
+        <v>1.032377490069385</v>
       </c>
       <c r="L17">
-        <v>1.013141169988878</v>
+        <v>1.013699816677915</v>
       </c>
       <c r="M17">
-        <v>1.03705825251304</v>
+        <v>1.037248217201246</v>
       </c>
       <c r="N17">
-        <v>1.009541631589784</v>
+        <v>1.012009821591962</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039035342863335</v>
+        <v>1.039185508651472</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033936008086886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034060825668898</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020870307854885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.991264329746805</v>
+        <v>0.9918454263772777</v>
       </c>
       <c r="D18">
-        <v>1.018900521696047</v>
+        <v>1.019032335868137</v>
       </c>
       <c r="E18">
-        <v>0.9996408680727582</v>
+        <v>1.000196148213819</v>
       </c>
       <c r="F18">
-        <v>1.023622097186996</v>
+        <v>1.023797389264974</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043519894775304</v>
+        <v>1.043638844922663</v>
       </c>
       <c r="J18">
-        <v>1.01866147145315</v>
+        <v>1.019220083307923</v>
       </c>
       <c r="K18">
-        <v>1.032400792285674</v>
+        <v>1.032530438820038</v>
       </c>
       <c r="L18">
-        <v>1.013465803482264</v>
+        <v>1.014011496742858</v>
       </c>
       <c r="M18">
-        <v>1.037045170324554</v>
+        <v>1.037217613995722</v>
       </c>
       <c r="N18">
-        <v>1.009579811400257</v>
+        <v>1.012001667456559</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038786896724765</v>
+        <v>1.038923240777095</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034048968352083</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034156162500357</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020863448041955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9911040871910598</v>
+        <v>0.9917553129073604</v>
       </c>
       <c r="D19">
-        <v>1.018625949024895</v>
+        <v>1.018820691100682</v>
       </c>
       <c r="E19">
-        <v>0.9994331683766557</v>
+        <v>1.000057260288954</v>
       </c>
       <c r="F19">
-        <v>1.023050918656264</v>
+        <v>1.023275692824767</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043328065522671</v>
+        <v>1.043484581745634</v>
       </c>
       <c r="J19">
-        <v>1.018370815698701</v>
+        <v>1.018996981869548</v>
       </c>
       <c r="K19">
-        <v>1.032067874880516</v>
+        <v>1.03225942963673</v>
       </c>
       <c r="L19">
-        <v>1.013197097243149</v>
+        <v>1.013810467296135</v>
       </c>
       <c r="M19">
-        <v>1.036420806067895</v>
+        <v>1.036641942263436</v>
       </c>
       <c r="N19">
-        <v>1.009390796434273</v>
+        <v>1.011871384688241</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037966989148622</v>
+        <v>1.038141889735724</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033820000012727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033971590251541</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020748505728411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9884052125125267</v>
+        <v>0.9893803024275594</v>
       </c>
       <c r="D20">
-        <v>1.016528622755215</v>
+        <v>1.017028529968228</v>
       </c>
       <c r="E20">
-        <v>0.9971494745614858</v>
+        <v>0.9980728722598611</v>
       </c>
       <c r="F20">
-        <v>1.020425409211376</v>
+        <v>1.020888309679516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042510986258268</v>
+        <v>1.042819551592849</v>
       </c>
       <c r="J20">
-        <v>1.016390528431425</v>
+        <v>1.01732682394769</v>
       </c>
       <c r="K20">
-        <v>1.030286931963175</v>
+        <v>1.030778419109175</v>
       </c>
       <c r="L20">
-        <v>1.011242632897064</v>
+        <v>1.012149692739037</v>
       </c>
       <c r="M20">
-        <v>1.034118365335633</v>
+        <v>1.034573545199235</v>
       </c>
       <c r="N20">
-        <v>1.008552540673835</v>
+        <v>1.011379979697927</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035615801633899</v>
+        <v>1.035976030362873</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032564742949778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032928795787271</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020323484417235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9824698393594602</v>
+        <v>0.9840857219926027</v>
       </c>
       <c r="D21">
-        <v>1.012522707687862</v>
+        <v>1.013615336417436</v>
       </c>
       <c r="E21">
-        <v>0.9924093607865503</v>
+        <v>0.9939138194423953</v>
       </c>
       <c r="F21">
-        <v>1.016361208902871</v>
+        <v>1.017289813934819</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041257405827809</v>
+        <v>1.041840062891283</v>
       </c>
       <c r="J21">
-        <v>1.012719224008352</v>
+        <v>1.014264217673616</v>
       </c>
       <c r="K21">
-        <v>1.027270654921475</v>
+        <v>1.028343273071971</v>
       </c>
       <c r="L21">
-        <v>1.007535981410605</v>
+        <v>1.009011421108567</v>
       </c>
       <c r="M21">
-        <v>1.031039104283572</v>
+        <v>1.031950865750386</v>
       </c>
       <c r="N21">
-        <v>1.00722343491026</v>
+        <v>1.010944299381883</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033137721312506</v>
+        <v>1.033859326481462</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030435362985758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031210641095183</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019766078577446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9786780200355946</v>
+        <v>0.9807052367474299</v>
       </c>
       <c r="D22">
-        <v>1.009977580997852</v>
+        <v>1.011450791494945</v>
       </c>
       <c r="E22">
-        <v>0.9893933790234908</v>
+        <v>0.9912711519092585</v>
       </c>
       <c r="F22">
-        <v>1.013815245666037</v>
+        <v>1.015043089299354</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040453452430047</v>
+        <v>1.041212586834802</v>
       </c>
       <c r="J22">
-        <v>1.01038344462622</v>
+        <v>1.012316293346571</v>
       </c>
       <c r="K22">
-        <v>1.025353937930164</v>
+        <v>1.026798768548257</v>
       </c>
       <c r="L22">
-        <v>1.00517792469617</v>
+        <v>1.00701753516307</v>
       </c>
       <c r="M22">
-        <v>1.029117899566461</v>
+        <v>1.030322316175725</v>
       </c>
       <c r="N22">
-        <v>1.006380178571686</v>
+        <v>1.010663211861978</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031617199199827</v>
+        <v>1.032570425481862</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029066564750652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030103736569455</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019413026925599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.980678493424171</v>
+        <v>0.9824691643960057</v>
       </c>
       <c r="D23">
-        <v>1.011312973198257</v>
+        <v>1.012570077763231</v>
       </c>
       <c r="E23">
-        <v>0.9909808551968249</v>
+        <v>0.9926430786723879</v>
       </c>
       <c r="F23">
-        <v>1.015155215922092</v>
+        <v>1.016212490003637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040872519957021</v>
+        <v>1.041530924902191</v>
       </c>
       <c r="J23">
-        <v>1.011609549473861</v>
+        <v>1.013319422177041</v>
       </c>
       <c r="K23">
-        <v>1.026355900807811</v>
+        <v>1.02758942315948</v>
       </c>
       <c r="L23">
-        <v>1.006416116241549</v>
+        <v>1.008045472708152</v>
       </c>
       <c r="M23">
-        <v>1.030126305767134</v>
+        <v>1.031163936465677</v>
       </c>
       <c r="N23">
-        <v>1.006819833510608</v>
+        <v>1.010759922013506</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03241529463681</v>
+        <v>1.03323651863075</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029765304505695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030652130470153</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019589550864612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9883984227066187</v>
+        <v>0.9893820103726871</v>
       </c>
       <c r="D24">
-        <v>1.01649053414123</v>
+        <v>1.016997649317255</v>
       </c>
       <c r="E24">
-        <v>0.997129595508422</v>
+        <v>0.9980615317829026</v>
       </c>
       <c r="F24">
-        <v>1.020352962970158</v>
+        <v>1.020821673046142</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042478990119393</v>
+        <v>1.042792378868459</v>
       </c>
       <c r="J24">
-        <v>1.016350497785233</v>
+        <v>1.017295007814558</v>
       </c>
       <c r="K24">
-        <v>1.030234116748412</v>
+        <v>1.030732700665292</v>
       </c>
       <c r="L24">
-        <v>1.011207306876232</v>
+        <v>1.01212277482826</v>
       </c>
       <c r="M24">
-        <v>1.034031842737658</v>
+        <v>1.034492743960921</v>
       </c>
       <c r="N24">
-        <v>1.008523758208341</v>
+        <v>1.011357232297555</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035506293676381</v>
+        <v>1.035871068548443</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032499872519626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032866285298855</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020302706409079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9969998178890962</v>
+        <v>0.9973572392646424</v>
       </c>
       <c r="D25">
-        <v>1.022282436793199</v>
+        <v>1.022158938677129</v>
       </c>
       <c r="E25">
-        <v>1.004013922533354</v>
+        <v>1.004388743468887</v>
       </c>
       <c r="F25">
-        <v>1.026187960439626</v>
+        <v>1.026172880506084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044224364918622</v>
+        <v>1.044256726543524</v>
       </c>
       <c r="J25">
-        <v>1.021628573702333</v>
+        <v>1.02197387135131</v>
       </c>
       <c r="K25">
-        <v>1.034544420934536</v>
+        <v>1.034422735592302</v>
       </c>
       <c r="L25">
-        <v>1.016550245456771</v>
+        <v>1.016919309747766</v>
       </c>
       <c r="M25">
-        <v>1.038392902576558</v>
+        <v>1.038378041833609</v>
       </c>
       <c r="N25">
-        <v>1.01041777615226</v>
+        <v>1.012630409068256</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038957795889123</v>
+        <v>1.038946034582131</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035544621800942</v>
+        <v>1.035472144188146</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021154443137118</v>
       </c>
     </row>
   </sheetData>
